--- a/Supplementary_Information/TABLE_SM4.xlsx
+++ b/Supplementary_Information/TABLE_SM4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/McCoy_2023/Supplementary_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A22FE5F-6029-1D45-AEC3-63D5F36BB809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C48A2B-B872-9D41-8E43-AD0900E3947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="3340" windowWidth="27640" windowHeight="16220" xr2:uid="{4E318712-64B0-974B-90D0-9E2F2DD6A9AC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16220" xr2:uid="{4E318712-64B0-974B-90D0-9E2F2DD6A9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Stratigraphy" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
   <si>
     <t>Unit Name</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Young (1960); conservative estimate between 1850' (Cherry Creek section) and 3170' (deformed section in Duck Creek Range)</t>
   </si>
   <si>
-    <t>Long et al. (2022); average of thickness on A-A', B-B', and C-C'</t>
-  </si>
-  <si>
     <t>Rodgers (1984)</t>
   </si>
   <si>
@@ -359,6 +356,39 @@
   </si>
   <si>
     <t xml:space="preserve">Long et al. (2022); average of thicknesses on A-A' and B-B', and Young (1960) thickness from Schell Creek Range. </t>
+  </si>
+  <si>
+    <t>This study; approx average (and likely conservative overestimate) for E Nv ranges</t>
+  </si>
+  <si>
+    <t>BWBS</t>
+  </si>
+  <si>
+    <t>Stella Lake Quartzite</t>
+  </si>
+  <si>
+    <t>Approximate thickness of type section of SLQ; Misch and Hazzard (1962); subtracted from total thickness of PMQ</t>
+  </si>
+  <si>
+    <t>Long et al. (2022); average of thickness on A-A', B-B', and C-C' of 1500m; minus approximate thickness of type section of SLQ of 200m.</t>
+  </si>
+  <si>
+    <t>Paleodepth of deposition parameters:</t>
+  </si>
+  <si>
+    <t>FWWB = fair weather wave base = uniform distribution between 5 and 50m deep</t>
+  </si>
+  <si>
+    <t>SWB = storm wave base = uniform distribution between 30m and 200m deep</t>
+  </si>
+  <si>
+    <t>BWBS = below wave base, slope = uniform distribution between 150m and 300m deep</t>
+  </si>
+  <si>
+    <t>BWB = below wave base = uniform distribution between 150m and 1000m deep</t>
+  </si>
+  <si>
+    <t>All physical lithological parameterizations utilized in SubsidenceChron.jl are collated in Zhang et al. (2023).</t>
   </si>
 </sst>
 </file>
@@ -448,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -485,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1CB100-A94A-4040-A75B-8EEBF30E1E5A}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,10 +861,10 @@
         <v>40</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,7 +878,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>46</v>
@@ -862,7 +895,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>47</v>
@@ -879,7 +912,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>48</v>
@@ -896,7 +929,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>49</v>
@@ -913,7 +946,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>50</v>
@@ -930,7 +963,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>51</v>
@@ -947,7 +980,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>52</v>
@@ -964,7 +997,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>53</v>
@@ -981,7 +1014,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>54</v>
@@ -998,7 +1031,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>55</v>
@@ -1015,7 +1048,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>56</v>
@@ -1032,7 +1065,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>58</v>
@@ -1049,10 +1082,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1066,7 +1099,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>57</v>
@@ -1083,7 +1116,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>58</v>
@@ -1100,7 +1133,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>59</v>
@@ -1117,10 +1150,10 @@
         <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,47 +1161,47 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="B20" s="10">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>65</v>
+      <c r="E20" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="10">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>64</v>
@@ -1176,312 +1209,375 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10">
-        <v>0.3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B30" s="10">
         <v>0.16</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B32" s="10">
         <v>0.1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <v>1.3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1.2</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B36" s="10">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0.04</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B38" s="10">
         <v>0.31</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="D38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <v>0.13</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <v>0.04</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>66</v>
+      <c r="D40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="10"/>
+      <c r="D44" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="10"/>
+      <c r="D45" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1510,30 +1606,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3">
         <f>C2-C2</f>
@@ -1549,15 +1645,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3">
         <f>C3-C2</f>
@@ -1573,15 +1669,15 @@
         <v>0.1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3">
         <f>C4-C2</f>
@@ -1597,15 +1693,15 @@
         <v>2.4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3">
         <f>C5-C2</f>
@@ -1621,15 +1717,15 @@
         <v>0.7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="3">
         <f>C6-C2</f>
@@ -1645,15 +1741,15 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3">
         <f>C7-C2</f>
@@ -1669,15 +1765,15 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3">
         <f>C8-C2</f>
@@ -1693,15 +1789,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3">
         <f>C9-C2</f>
@@ -1717,15 +1813,15 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3">
         <f>C10-C2</f>
@@ -1741,15 +1837,15 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3">
         <f>C11-C2</f>
@@ -1765,10 +1861,10 @@
         <v>0.4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Supplementary_Information/TABLE_SM4.xlsx
+++ b/Supplementary_Information/TABLE_SM4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/McCoy_2023/Supplementary_Information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_McCoy_2024/Supplementary_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C48A2B-B872-9D41-8E43-AD0900E3947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E7AAD-8F4F-3C46-B052-DC34EEADC486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16220" xr2:uid="{4E318712-64B0-974B-90D0-9E2F2DD6A9AC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="1" xr2:uid="{4E318712-64B0-974B-90D0-9E2F2DD6A9AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Stratigraphy" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
   <si>
     <t>Unit Name</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Karlstrom et al., 2020</t>
   </si>
   <si>
-    <t>Long et al., 2022; age of top of lower Pennsylvanian (Bashkirian) from GTS 2020; Gradstein et al., 2020</t>
-  </si>
-  <si>
     <t>Min. depositional age of Lower Pennsylvanian Ely Limestone</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>Max. depositional age, CA-ID-TIMS maximum depositional age via chemostratigraphic correlation with Keele Peak excursion-bearing strata in Death Valley</t>
   </si>
   <si>
-    <t>Young (1960); measured in central Schell Creek Range.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Long et al. (2022); average of thicknesses on A-A' and B-B', and Young (1960) thickness from Schell Creek Range. </t>
   </si>
   <si>
@@ -389,6 +383,54 @@
   </si>
   <si>
     <t>All physical lithological parameterizations utilized in SubsidenceChron.jl are collated in Zhang et al. (2023).</t>
+  </si>
+  <si>
+    <t>Top_Pogonip</t>
+  </si>
+  <si>
+    <t>Middle Dunderberg</t>
+  </si>
+  <si>
+    <t>Cothren et al., 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA-ID-TIMS MDA on detrital zircon; new interpreted duration of  SPICE carbon isotope excursion and approximate age of positive CIE  peak, which is found in the Dunderberg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Approximate span of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Histiodella Sinuosa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>conodont zone, encompassing top of Kanosh Shale (top of Pogonip group in Egan and Cherry Creek ranges)</t>
+    </r>
+  </si>
+  <si>
+    <t>Long et al., 2022; age of top of lower Pennsylvanian (Bashkirian) from GTS 2020 (Gradstein et al., 2020)</t>
+  </si>
+  <si>
+    <t>Edwards and Saltzman, 2014; GTS 2020 (Gradstein et al., 2020)</t>
+  </si>
+  <si>
+    <t>Decompacted heights (used to calculate decompacted sedimentation rate)</t>
+  </si>
+  <si>
+    <t>Young (1960); measured in central Schell Creek Range (note that despite "Shale" nomenclature in unit name, these strata are dominated by carbonate).</t>
   </si>
 </sst>
 </file>
@@ -398,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,6 +470,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -478,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,6 +574,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1CB100-A94A-4040-A75B-8EEBF30E1E5A}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,13 +1140,13 @@
         <v>0.185</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>105</v>
+      <c r="E14" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1153,7 +1214,7 @@
         <v>67</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,12 +1231,12 @@
         <v>66</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10">
         <v>0.2</v>
@@ -1187,7 +1248,7 @@
         <v>67</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1201,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>64</v>
@@ -1218,7 +1279,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>63</v>
@@ -1235,7 +1296,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>63</v>
@@ -1252,7 +1313,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>63</v>
@@ -1269,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>63</v>
@@ -1391,7 +1452,7 @@
         <v>67</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1532,29 +1593,29 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="10"/>
       <c r="D45" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D46" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D47" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1564,7 +1625,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -1586,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1663B5E-D217-044B-851F-117B3CB58212}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1600,11 +1661,12 @@
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="49.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="87.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="30.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1626,8 +1688,11 @@
       <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1645,13 +1710,16 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="17">
+        <v>-16650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -1674,8 +1742,11 @@
       <c r="G3" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>-16410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1693,13 +1764,16 @@
         <v>2.4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>-15749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -1722,8 +1796,11 @@
       <c r="G5" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>-15240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -1741,13 +1818,16 @@
         <v>0.6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>-12502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1770,8 +1850,11 @@
       <c r="G7" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>-12010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>82</v>
       </c>
@@ -1794,8 +1877,11 @@
       <c r="G8" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>-11850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
@@ -1818,8 +1904,11 @@
       <c r="G9" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>-8060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
@@ -1842,30 +1931,141 @@
       <c r="G10" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>-6150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B13+C11</f>
+        <v>9445</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-3745</v>
+      </c>
+      <c r="D11" s="3">
+        <v>493</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-4145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B13+C12</f>
+        <v>11035</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-2155</v>
+      </c>
+      <c r="D12" s="3">
+        <v>469</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-2270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="3">
-        <f>C11-C2</f>
+      <c r="B13" s="3">
+        <f>C13-C2</f>
         <v>13190</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D13" s="3">
         <v>315.2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E13" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
